--- a/utils/recordingExcel/BXH/Bao_RatKC_Recording.xlsx
+++ b/utils/recordingExcel/BXH/Bao_RatKC_Recording.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr filterPrivacy="true"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1BDA3D-C445-4EB6-878D-72F541AD6CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6AAF26-9ADA-4D12-95DE-2606A83A5AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="31259" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="25660" uniqueCount="375">
   <si>
     <t>RNP_Noise</t>
   </si>
@@ -1162,13 +1162,7 @@
   </si>
   <si>
     <t>AC_A3o8V3o6</t>
-  </si>
-  <si>
-    <t>AC_A3o8V3o6</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AC_A4o4V3o6</t>
   </si>
   <si>
     <t>AC_A4o4V3o6</t>
@@ -1176,13 +1170,7 @@
   </si>
   <si>
     <t>AC_A3o8V4o0</t>
-  </si>
-  <si>
-    <t>AC_A3o8V4o0</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AC_A4o4V4o0</t>
   </si>
   <si>
     <t>AC_A4o4V4o0</t>
@@ -1190,13 +1178,7 @@
   </si>
   <si>
     <t>AC_A5o0V4o0</t>
-  </si>
-  <si>
-    <t>AC_A5o0V4o0</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AC_A3o2V4o0</t>
   </si>
   <si>
     <t>AC_A3o2V4o0</t>
@@ -1204,13 +1186,7 @@
   </si>
   <si>
     <t>AC_A3o2V3o6</t>
-  </si>
-  <si>
-    <t>AC_A3o2V3o6</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AC_A5o0V3o6</t>
   </si>
   <si>
     <t>AC_A5o0V3o6</t>
@@ -1218,20 +1194,11 @@
   </si>
   <si>
     <t>AC_A5o0V3o2</t>
-  </si>
-  <si>
-    <t>AC_A5o0V3o2</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AC_A4o4V3o2</t>
   </si>
   <si>
     <t>AC_A4o4V3o2</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AC_A3o8V3o2</t>
   </si>
   <si>
     <t>AC_A3o8V3o2</t>
@@ -1702,8 +1669,8 @@
   <dimension ref="A1:S47"/>
   <sheetViews>
     <sheetView tabSelected="true" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G45" sqref="G45"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I43" sqref="I43:K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1866,7 +1833,7 @@
         <v>291</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H3" s="15" t="s">
         <v>298</v>
@@ -1911,7 +1878,7 @@
         <v>291</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H4" s="15" t="s">
         <v>298</v>
@@ -1956,7 +1923,7 @@
         <v>291</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H5" s="15" t="s">
         <v>298</v>
@@ -2001,7 +1968,7 @@
         <v>291</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H6" s="21" t="s">
         <v>298</v>
@@ -2046,7 +2013,7 @@
         <v>291</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H7" s="15" t="s">
         <v>298</v>
@@ -2091,7 +2058,7 @@
         <v>291</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H8" s="15" t="s">
         <v>298</v>
@@ -2136,7 +2103,7 @@
         <v>291</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H9" s="15" t="s">
         <v>298</v>
@@ -2181,7 +2148,7 @@
         <v>291</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H10" s="21" t="s">
         <v>298</v>
@@ -2226,7 +2193,7 @@
         <v>291</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="H11" s="15" t="s">
         <v>298</v>
@@ -2271,7 +2238,7 @@
         <v>291</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="H12" s="15" t="s">
         <v>298</v>
@@ -2316,7 +2283,7 @@
         <v>291</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="H13" s="15" t="s">
         <v>298</v>
@@ -2361,7 +2328,7 @@
         <v>291</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="H14" s="21" t="s">
         <v>298</v>
@@ -2406,7 +2373,7 @@
         <v>291</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="H15" s="15" t="s">
         <v>298</v>
@@ -2451,7 +2418,7 @@
         <v>291</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="H16" s="15" t="s">
         <v>298</v>
@@ -2496,7 +2463,7 @@
         <v>291</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="H17" s="15" t="s">
         <v>298</v>
@@ -2541,7 +2508,7 @@
         <v>291</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="H18" s="21" t="s">
         <v>298</v>
@@ -2586,7 +2553,7 @@
         <v>291</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="H19" s="15" t="s">
         <v>298</v>
@@ -2631,7 +2598,7 @@
         <v>291</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="H20" s="15" t="s">
         <v>298</v>
@@ -2676,7 +2643,7 @@
         <v>291</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="H21" s="15" t="s">
         <v>298</v>
@@ -2721,7 +2688,7 @@
         <v>291</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="H22" s="21" t="s">
         <v>298</v>
@@ -2766,7 +2733,7 @@
         <v>291</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="H23" s="15" t="s">
         <v>298</v>
@@ -2811,7 +2778,7 @@
         <v>291</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="H24" s="15" t="s">
         <v>298</v>
@@ -2856,7 +2823,7 @@
         <v>291</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="H25" s="15" t="s">
         <v>298</v>
@@ -2901,7 +2868,7 @@
         <v>291</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="H26" s="21" t="s">
         <v>298</v>
@@ -2946,7 +2913,7 @@
         <v>291</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="H27" s="15" t="s">
         <v>298</v>
@@ -2991,7 +2958,7 @@
         <v>291</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="H28" s="15" t="s">
         <v>298</v>
@@ -3036,7 +3003,7 @@
         <v>291</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="H29" s="15" t="s">
         <v>298</v>
@@ -3081,7 +3048,7 @@
         <v>291</v>
       </c>
       <c r="G30" s="21" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="H30" s="21" t="s">
         <v>298</v>
@@ -3126,7 +3093,7 @@
         <v>291</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="H31" s="15" t="s">
         <v>298</v>
@@ -3171,7 +3138,7 @@
         <v>291</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="H32" s="15" t="s">
         <v>298</v>
@@ -3216,7 +3183,7 @@
         <v>291</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="H33" s="15" t="s">
         <v>298</v>
@@ -3261,7 +3228,7 @@
         <v>291</v>
       </c>
       <c r="G34" s="21" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="H34" s="21" t="s">
         <v>298</v>
@@ -3306,7 +3273,7 @@
         <v>291</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="H35" s="15" t="s">
         <v>298</v>
@@ -3351,7 +3318,7 @@
         <v>291</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="H36" s="15" t="s">
         <v>298</v>
@@ -3396,7 +3363,7 @@
         <v>291</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="H37" s="15" t="s">
         <v>298</v>
@@ -3441,7 +3408,7 @@
         <v>291</v>
       </c>
       <c r="G38" s="21" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="H38" s="21" t="s">
         <v>298</v>
@@ -3486,7 +3453,7 @@
         <v>291</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="H39" s="15" t="s">
         <v>298</v>
@@ -3531,7 +3498,7 @@
         <v>291</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="H40" s="15" t="s">
         <v>298</v>
@@ -3576,7 +3543,7 @@
         <v>291</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="H41" s="15" t="s">
         <v>298</v>
@@ -3621,7 +3588,7 @@
         <v>291</v>
       </c>
       <c r="G42" s="21" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="H42" s="21" t="s">
         <v>298</v>
@@ -3666,7 +3633,7 @@
         <v>291</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="H43" s="15" t="s">
         <v>298</v>
@@ -3711,7 +3678,7 @@
         <v>291</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="H44" s="15" t="s">
         <v>298</v>
@@ -3756,7 +3723,7 @@
         <v>291</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="H45" s="15" t="s">
         <v>298</v>
@@ -3801,7 +3768,7 @@
         <v>291</v>
       </c>
       <c r="G46" s="21" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="H46" s="21" t="s">
         <v>298</v>
